--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H2">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I2">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J2">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N2">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O2">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P2">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q2">
-        <v>132.8637415612408</v>
+        <v>308.54650211256</v>
       </c>
       <c r="R2">
-        <v>132.8637415612408</v>
+        <v>2776.91851901304</v>
       </c>
       <c r="S2">
-        <v>0.1847432347635872</v>
+        <v>0.2033506004460597</v>
       </c>
       <c r="T2">
-        <v>0.1847432347635872</v>
+        <v>0.2033506004460596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H3">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I3">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J3">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N3">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P3">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q3">
-        <v>12.94283172754876</v>
+        <v>14.66582675013333</v>
       </c>
       <c r="R3">
-        <v>12.94283172754876</v>
+        <v>131.9924407512</v>
       </c>
       <c r="S3">
-        <v>0.01799663754950041</v>
+        <v>0.009665657057390753</v>
       </c>
       <c r="T3">
-        <v>0.01799663754950041</v>
+        <v>0.009665657057390753</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H4">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I4">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J4">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N4">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O4">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P4">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q4">
-        <v>5.143561162198323</v>
+        <v>10.97522227752</v>
       </c>
       <c r="R4">
-        <v>5.143561162198323</v>
+        <v>98.77700049768001</v>
       </c>
       <c r="S4">
-        <v>0.007151974768608195</v>
+        <v>0.007233327958287725</v>
       </c>
       <c r="T4">
-        <v>0.007151974768608195</v>
+        <v>0.007233327958287722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H5">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I5">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J5">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N5">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O5">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P5">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q5">
-        <v>8.71916764365041</v>
+        <v>15.25148548090667</v>
       </c>
       <c r="R5">
-        <v>8.71916764365041</v>
+        <v>137.26336932816</v>
       </c>
       <c r="S5">
-        <v>0.01212375337323699</v>
+        <v>0.01005164119185288</v>
       </c>
       <c r="T5">
-        <v>0.01212375337323699</v>
+        <v>0.01005164119185288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H6">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I6">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J6">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N6">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O6">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P6">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q6">
-        <v>209.4040643829675</v>
+        <v>437.343326129846</v>
       </c>
       <c r="R6">
-        <v>209.4040643829675</v>
+        <v>3936.089935168614</v>
       </c>
       <c r="S6">
-        <v>0.291170365760928</v>
+        <v>0.288235411390719</v>
       </c>
       <c r="T6">
-        <v>0.291170365760928</v>
+        <v>0.288235411390719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H7">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I7">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J7">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N7">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P7">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q7">
-        <v>20.39895562570986</v>
+        <v>20.78779505660222</v>
       </c>
       <c r="R7">
-        <v>20.39895562570986</v>
+        <v>187.09015550942</v>
       </c>
       <c r="S7">
-        <v>0.02836416469842881</v>
+        <v>0.0137004003538098</v>
       </c>
       <c r="T7">
-        <v>0.02836416469842881</v>
+        <v>0.0137004003538098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H8">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I8">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J8">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N8">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O8">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P8">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q8">
-        <v>8.106670790015722</v>
+        <v>15.556618477282</v>
       </c>
       <c r="R8">
-        <v>8.106670790015722</v>
+        <v>140.009566295538</v>
       </c>
       <c r="S8">
-        <v>0.01127209400632962</v>
+        <v>0.01025274208784098</v>
       </c>
       <c r="T8">
-        <v>0.01127209400632962</v>
+        <v>0.01025274208784098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H9">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I9">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J9">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N9">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O9">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P9">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q9">
-        <v>13.74211745930156</v>
+        <v>21.61792580039511</v>
       </c>
       <c r="R9">
-        <v>13.74211745930156</v>
+        <v>194.561332203556</v>
       </c>
       <c r="S9">
-        <v>0.01910802151211696</v>
+        <v>0.01424750616782235</v>
       </c>
       <c r="T9">
-        <v>0.01910802151211696</v>
+        <v>0.01424750616782235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H10">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I10">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J10">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N10">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O10">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P10">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q10">
-        <v>33.3147194816784</v>
+        <v>79.55859416658301</v>
       </c>
       <c r="R10">
-        <v>33.3147194816784</v>
+        <v>716.0273474992471</v>
       </c>
       <c r="S10">
-        <v>0.04632316514622535</v>
+        <v>0.05243387231308517</v>
       </c>
       <c r="T10">
-        <v>0.04632316514622535</v>
+        <v>0.05243387231308516</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H11">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I11">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J11">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N11">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O11">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P11">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q11">
-        <v>3.245330917488178</v>
+        <v>3.78157765699</v>
       </c>
       <c r="R11">
-        <v>3.245330917488178</v>
+        <v>34.03419891291</v>
       </c>
       <c r="S11">
-        <v>0.004512539873782606</v>
+        <v>0.002492285869122536</v>
       </c>
       <c r="T11">
-        <v>0.004512539873782606</v>
+        <v>0.002492285869122536</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H12">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I12">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J12">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N12">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O12">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P12">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q12">
-        <v>1.289714524383687</v>
+        <v>2.829956745861</v>
       </c>
       <c r="R12">
-        <v>1.289714524383687</v>
+        <v>25.469610712749</v>
       </c>
       <c r="S12">
-        <v>0.001793311179983592</v>
+        <v>0.001865110767962214</v>
       </c>
       <c r="T12">
-        <v>0.001793311179983592</v>
+        <v>0.001865110767962213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H13">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I13">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J13">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N13">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O13">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P13">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q13">
-        <v>2.186274605461498</v>
+        <v>3.932589530282</v>
       </c>
       <c r="R13">
-        <v>2.186274605461498</v>
+        <v>35.393305772538</v>
       </c>
       <c r="S13">
-        <v>0.00303995234477326</v>
+        <v>0.002591811726321234</v>
       </c>
       <c r="T13">
-        <v>0.00303995234477326</v>
+        <v>0.002591811726321233</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H14">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I14">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J14">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N14">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O14">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P14">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q14">
-        <v>222.8607429254784</v>
+        <v>514.303460791625</v>
       </c>
       <c r="R14">
-        <v>222.8607429254784</v>
+        <v>4628.731147124625</v>
       </c>
       <c r="S14">
-        <v>0.3098814926184487</v>
+        <v>0.3389567434645896</v>
       </c>
       <c r="T14">
-        <v>0.3098814926184487</v>
+        <v>0.3389567434645895</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H15">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I15">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J15">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N15">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O15">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P15">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q15">
-        <v>21.70982888534298</v>
+        <v>24.44586278347222</v>
       </c>
       <c r="R15">
-        <v>21.70982888534298</v>
+        <v>220.01276505125</v>
       </c>
       <c r="S15">
-        <v>0.03018689649495949</v>
+        <v>0.01611128579129888</v>
       </c>
       <c r="T15">
-        <v>0.03018689649495949</v>
+        <v>0.01611128579129888</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H16">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I16">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J16">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N16">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O16">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P16">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q16">
-        <v>8.62761990909155</v>
+        <v>18.294146138875</v>
       </c>
       <c r="R16">
-        <v>8.62761990909155</v>
+        <v>164.647315249875</v>
       </c>
       <c r="S16">
-        <v>0.01199645886520233</v>
+        <v>0.01205693656067139</v>
       </c>
       <c r="T16">
-        <v>0.01199645886520233</v>
+        <v>0.01205693656067138</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H17">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I17">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J17">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N17">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O17">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P17">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q17">
-        <v>14.62521042928829</v>
+        <v>25.42207320886111</v>
       </c>
       <c r="R17">
-        <v>14.62521042928829</v>
+        <v>228.79865887975</v>
       </c>
       <c r="S17">
-        <v>0.02033593704388854</v>
+        <v>0.0167546668531659</v>
       </c>
       <c r="T17">
-        <v>0.02033593704388854</v>
+        <v>0.0167546668531659</v>
       </c>
     </row>
   </sheetData>
